--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>583907.6595918863</v>
+        <v>577117.6249910296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9386245.693330716</v>
+        <v>9696378.783016562</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8235652.590698003</v>
+        <v>8172392.247074609</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9115528.14897394</v>
+        <v>9122418.060284095</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.77911844692176</v>
       </c>
       <c r="E2" t="n">
-        <v>175.8098327778319</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9008012965642</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1172228173282</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.4277435039525</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.80474195134732</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.0734480055617</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2334980103508</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>82.32056016723683</v>
       </c>
       <c r="F3" t="n">
-        <v>142.76735488083</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5934151572083</v>
       </c>
       <c r="H3" t="n">
         <v>104.9910380206319</v>
       </c>
       <c r="I3" t="n">
-        <v>63.57075238159806</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>132.4723485550174</v>
+        <v>51.72240839478979</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6360325334498</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.89875519058049</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2847278842578</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341.5848006739751</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.9008012965642</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>325.1172228173282</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>156.4277435039525</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.80474195134735</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>177.0734480055617</v>
       </c>
       <c r="T5" t="n">
-        <v>216.9588737673374</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2334980103508</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>43.76727233312211</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5934151572083</v>
       </c>
       <c r="H6" t="n">
-        <v>104.9910380206319</v>
+        <v>29.66651773246819</v>
       </c>
       <c r="I6" t="n">
-        <v>63.57075238159807</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.5857113589196</v>
+        <v>53.58571135891959</v>
       </c>
       <c r="S6" t="n">
         <v>157.7503553344525</v>
       </c>
       <c r="T6" t="n">
-        <v>58.24601855349718</v>
+        <v>197.1412912232596</v>
       </c>
       <c r="U6" t="n">
         <v>225.8920332647905</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>135.1608957373451</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>48.8987551905805</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>149.0175444330455</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>213.0572776585077</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.2586407700247</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>37.19667175406078</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.4277435039525</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>61.80474195134742</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>177.0734480055617</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>216.9588737673374</v>
+        <v>123.4289461785838</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2334980103508</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>138.8470300436556</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.63791098010342</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5934151572083</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>104.9910380206319</v>
+        <v>95.71341666527671</v>
       </c>
       <c r="I9" t="n">
-        <v>63.57075238159808</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>53.58571135891965</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157.7503553344525</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>197.1412912232596</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8920332647905</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3621190341859</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.6360325334498</v>
+        <v>49.94675160484171</v>
       </c>
       <c r="I10" t="n">
-        <v>102.6156834243762</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.89875519058054</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>149.0175444330455</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>75.49088380154248</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>23.41994504832003</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518646</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>95.65910954404377</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.781160222249645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>89.12985772078963</v>
+        <v>295.7880427010242</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.045250128462</v>
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>145.069212393385</v>
       </c>
       <c r="G15" t="n">
         <v>135.3343964518635</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>103.3387326418235</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>144.8586974472234</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>146.9246168289002</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>185.1245921826755</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>38.98874602494588</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>17.41027892792368</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>51.52320147290359</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.547702772954</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>215.7750992511839</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>93.89254046638291</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.781160222249891</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>206.8582527646969</v>
       </c>
       <c r="H23" t="n">
-        <v>146.9246168289003</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>23.94563726208685</v>
       </c>
       <c r="X25" t="n">
-        <v>8.906162259192262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.496026918082633</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>323.000273512147</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>85.45564210299027</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>111.30570747549</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>282.3894018905162</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>163.3363900993294</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>18.56489249210195</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>190.6325653918827</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>193.1994278308476</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>79.82547003249434</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>244.5703920965291</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>61.1842155664827</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>193.1994278308476</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>356.6517765926586</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H36" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269742</v>
       </c>
       <c r="I36" t="n">
         <v>20.22295923705012</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.3646350838583</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T36" t="n">
         <v>192.0665623188214</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>15.53666026283998</v>
       </c>
       <c r="D37" t="n">
-        <v>100.4274824880403</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>146.9246168288995</v>
+        <v>146.9246168289002</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>144.8586974472234</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3387326418236</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>136.6901311847641</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>216.4305957178007</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>76.25086600925761</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>235.946174042446</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>146.9246168289006</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>112.4682513097691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>103.9921801256811</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>103.3387326418235</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.7486959972119</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1544.309055393648</v>
+        <v>474.5316453739924</v>
       </c>
       <c r="C2" t="n">
-        <v>1544.309055393648</v>
+        <v>105.5691284335807</v>
       </c>
       <c r="D2" t="n">
-        <v>1544.309055393648</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E2" t="n">
-        <v>1366.72336571907</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F2" t="n">
-        <v>955.7374609294627</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G2" t="n">
-        <v>537.6558434581857</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>209.2546082891673</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>157.2146983965567</v>
+        <v>157.2146983965568</v>
       </c>
       <c r="K2" t="n">
-        <v>436.7779331278829</v>
+        <v>436.777933127883</v>
       </c>
       <c r="L2" t="n">
-        <v>835.8774740265424</v>
+        <v>835.8774740265427</v>
       </c>
       <c r="M2" t="n">
-        <v>1296.559156998187</v>
+        <v>1296.559156998188</v>
       </c>
       <c r="N2" t="n">
         <v>1750.063153682372</v>
@@ -4352,28 +4352,28 @@
         <v>2562.339328400156</v>
       </c>
       <c r="R2" t="n">
-        <v>2499.910296126068</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2321.048227433581</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2321.048227433581</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2321.048227433581</v>
+        <v>2308.568118288691</v>
       </c>
       <c r="V2" t="n">
-        <v>2321.048227433581</v>
+        <v>1977.50523094512</v>
       </c>
       <c r="W2" t="n">
-        <v>2321.048227433581</v>
+        <v>1624.736575675006</v>
       </c>
       <c r="X2" t="n">
-        <v>2321.048227433581</v>
+        <v>1251.270817413926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1930.90889545777</v>
+        <v>861.1314854381142</v>
       </c>
     </row>
     <row r="3">
@@ -4392,16 +4392,16 @@
         <v>524.9581256977616</v>
       </c>
       <c r="E3" t="n">
-        <v>365.7206706923061</v>
+        <v>441.8060447207547</v>
       </c>
       <c r="F3" t="n">
-        <v>221.5112213177303</v>
+        <v>295.2714867476396</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5112213177303</v>
+        <v>157.2983401241969</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4596677615365</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800312</v>
@@ -4413,10 +4413,10 @@
         <v>365.9385033953938</v>
       </c>
       <c r="L3" t="n">
-        <v>602.1153621076636</v>
+        <v>757.1404768474</v>
       </c>
       <c r="M3" t="n">
-        <v>1110.608834961431</v>
+        <v>1265.633949701167</v>
       </c>
       <c r="N3" t="n">
         <v>1648.267630359544</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
       <c r="C4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
       <c r="D4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
       <c r="E4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
       <c r="F4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
       <c r="G4" t="n">
-        <v>258.8576832589428</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>100.6394685786905</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6394685786905</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>51.24678656800312</v>
@@ -4519,19 +4519,19 @@
         <v>682.0853063817796</v>
       </c>
       <c r="U4" t="n">
-        <v>682.0853063817796</v>
+        <v>392.9088135693979</v>
       </c>
       <c r="V4" t="n">
-        <v>682.0853063817796</v>
+        <v>392.9088135693979</v>
       </c>
       <c r="W4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
       <c r="X4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
       <c r="Y4" t="n">
-        <v>392.6681363448189</v>
+        <v>103.4916435324373</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.72336571907</v>
+        <v>1364.294464283769</v>
       </c>
       <c r="C5" t="n">
-        <v>1366.72336571907</v>
+        <v>1364.294464283769</v>
       </c>
       <c r="D5" t="n">
-        <v>1366.72336571907</v>
+        <v>1006.028765677019</v>
       </c>
       <c r="E5" t="n">
-        <v>1366.72336571907</v>
+        <v>620.2405130787748</v>
       </c>
       <c r="F5" t="n">
-        <v>955.7374609294627</v>
+        <v>209.2546082891673</v>
       </c>
       <c r="G5" t="n">
-        <v>537.6558434581857</v>
+        <v>209.2546082891673</v>
       </c>
       <c r="H5" t="n">
         <v>209.2546082891673</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>157.2146983965567</v>
       </c>
       <c r="K5" t="n">
-        <v>436.777933127883</v>
+        <v>436.7779331278829</v>
       </c>
       <c r="L5" t="n">
         <v>835.8774740265428</v>
@@ -4583,34 +4583,34 @@
         <v>2133.106480061285</v>
       </c>
       <c r="P5" t="n">
-        <v>2422.350714197592</v>
+        <v>2422.350714197593</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="R5" t="n">
-        <v>2499.910296126068</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2321.048227433581</v>
+        <v>2383.47725970767</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.897849890816</v>
+        <v>2383.47725970767</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.897849890816</v>
+        <v>2129.706049596205</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.897849890816</v>
+        <v>1798.643162252634</v>
       </c>
       <c r="W5" t="n">
-        <v>2101.897849890816</v>
+        <v>1798.643162252634</v>
       </c>
       <c r="X5" t="n">
-        <v>2101.897849890816</v>
+        <v>1754.433796259581</v>
       </c>
       <c r="Y5" t="n">
-        <v>1711.758517915005</v>
+        <v>1364.294464283769</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.6438198621219</v>
+        <v>848.3455646401403</v>
       </c>
       <c r="C6" t="n">
-        <v>814.1907905809949</v>
+        <v>673.8925353590133</v>
       </c>
       <c r="D6" t="n">
-        <v>665.2563809197436</v>
+        <v>524.9581256977621</v>
       </c>
       <c r="E6" t="n">
-        <v>506.0189259142882</v>
+        <v>365.7206706923066</v>
       </c>
       <c r="F6" t="n">
-        <v>359.4843679411731</v>
+        <v>219.1861127191915</v>
       </c>
       <c r="G6" t="n">
-        <v>221.5112213177303</v>
+        <v>81.21296609574878</v>
       </c>
       <c r="H6" t="n">
-        <v>115.4596677615365</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800312</v>
+        <v>120.6671692172149</v>
       </c>
       <c r="K6" t="n">
-        <v>210.9133886556575</v>
+        <v>210.9133886556578</v>
       </c>
       <c r="L6" t="n">
-        <v>602.1153621076637</v>
+        <v>602.1153621076641</v>
       </c>
       <c r="M6" t="n">
-        <v>1110.608834961431</v>
+        <v>1110.608834961432</v>
       </c>
       <c r="N6" t="n">
         <v>1648.267630359544</v>
@@ -4662,34 +4662,34 @@
         <v>2073.704709726016</v>
       </c>
       <c r="P6" t="n">
-        <v>2398.152405435665</v>
+        <v>2398.152405435666</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2508.21234722953</v>
+        <v>2508.212347229531</v>
       </c>
       <c r="S6" t="n">
-        <v>2348.868553962406</v>
+        <v>2348.868553962407</v>
       </c>
       <c r="T6" t="n">
-        <v>2290.034191787156</v>
+        <v>2149.735936565175</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.860420812621</v>
+        <v>1921.562165590639</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.708312580878</v>
+        <v>1686.410057358897</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.470955852677</v>
+        <v>1432.172700630695</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.619455647144</v>
+        <v>1224.321200425162</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.85915688219</v>
+        <v>1016.560901660208</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C7" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D7" t="n">
-        <v>531.9686669694436</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>384.0555733870505</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>237.1656258891401</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>237.1656258891401</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>237.1656258891401</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>100.6394685786905</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="K7" t="n">
         <v>101.5315041582452</v>
@@ -4732,43 +4732,43 @@
         <v>221.4050648543856</v>
       </c>
       <c r="M7" t="n">
-        <v>358.1840501895424</v>
+        <v>358.1840501895425</v>
       </c>
       <c r="N7" t="n">
-        <v>497.1453533913465</v>
+        <v>497.1453533913467</v>
       </c>
       <c r="O7" t="n">
-        <v>609.4823129223978</v>
+        <v>609.482312922398</v>
       </c>
       <c r="P7" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="Q7" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="R7" t="n">
-        <v>682.0853063817793</v>
+        <v>531.5625342271882</v>
       </c>
       <c r="S7" t="n">
-        <v>682.0853063817793</v>
+        <v>316.3531628549582</v>
       </c>
       <c r="T7" t="n">
-        <v>682.0853063817793</v>
+        <v>88.81918227917564</v>
       </c>
       <c r="U7" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="V7" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="W7" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="X7" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="Y7" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800313</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>595.0428608874115</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C8" t="n">
-        <v>595.0428608874115</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D8" t="n">
-        <v>595.0428608874115</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E8" t="n">
-        <v>209.2546082891673</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F8" t="n">
-        <v>209.2546082891673</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G8" t="n">
-        <v>209.2546082891673</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>209.2546082891673</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2146983965565</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K8" t="n">
-        <v>436.7779331278825</v>
+        <v>643.3537986017849</v>
       </c>
       <c r="L8" t="n">
-        <v>835.8774740265419</v>
+        <v>959.6534908014927</v>
       </c>
       <c r="M8" t="n">
-        <v>1296.559156998187</v>
+        <v>1146.3529036269</v>
       </c>
       <c r="N8" t="n">
-        <v>1750.063153682371</v>
+        <v>1340.687116518883</v>
       </c>
       <c r="O8" t="n">
-        <v>2133.106480061284</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P8" t="n">
-        <v>2422.350714197591</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R8" t="n">
-        <v>2499.910296126066</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2321.04822743358</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.897849890815</v>
+        <v>2281.448587686293</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.126639779349</v>
+        <v>2281.448587686293</v>
       </c>
       <c r="V8" t="n">
-        <v>1707.877114482727</v>
+        <v>2281.448587686293</v>
       </c>
       <c r="W8" t="n">
-        <v>1355.108459212613</v>
+        <v>1928.679932416179</v>
       </c>
       <c r="X8" t="n">
-        <v>981.6427009515332</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.6427009515332</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.6438198621219</v>
+        <v>914.5278549835448</v>
       </c>
       <c r="C9" t="n">
-        <v>814.1907905809949</v>
+        <v>740.0748257024178</v>
       </c>
       <c r="D9" t="n">
-        <v>665.2563809197436</v>
+        <v>591.1404160411665</v>
       </c>
       <c r="E9" t="n">
-        <v>506.0189259142882</v>
+        <v>431.902961035711</v>
       </c>
       <c r="F9" t="n">
-        <v>359.4843679411731</v>
+        <v>285.368403062596</v>
       </c>
       <c r="G9" t="n">
-        <v>221.5112213177303</v>
+        <v>147.927005421818</v>
       </c>
       <c r="H9" t="n">
-        <v>115.4596677615365</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>51.24678656800309</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5181207461818</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L9" t="n">
-        <v>687.720094198188</v>
+        <v>915.3100657583872</v>
       </c>
       <c r="M9" t="n">
-        <v>1196.213567051955</v>
+        <v>1549.489049537426</v>
       </c>
       <c r="N9" t="n">
-        <v>1733.872362450068</v>
+        <v>1748.14579119009</v>
       </c>
       <c r="O9" t="n">
-        <v>2159.309441816539</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P9" t="n">
-        <v>2483.757137526189</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2508.212347229528</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2348.868553962405</v>
+        <v>2412.87253926279</v>
       </c>
       <c r="T9" t="n">
-        <v>2149.735936565173</v>
+        <v>2215.883243422878</v>
       </c>
       <c r="U9" t="n">
-        <v>1921.562165590637</v>
+        <v>1987.744455934044</v>
       </c>
       <c r="V9" t="n">
-        <v>1686.410057358894</v>
+        <v>1752.592347702301</v>
       </c>
       <c r="W9" t="n">
-        <v>1432.172700630693</v>
+        <v>1498.3549909741</v>
       </c>
       <c r="X9" t="n">
-        <v>1224.32120042516</v>
+        <v>1290.503490768567</v>
       </c>
       <c r="Y9" t="n">
-        <v>1016.560901660206</v>
+        <v>1082.743192003613</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.5625342271874</v>
+        <v>420.7508731555606</v>
       </c>
       <c r="C10" t="n">
-        <v>531.5625342271874</v>
+        <v>251.8146902276537</v>
       </c>
       <c r="D10" t="n">
-        <v>531.5625342271874</v>
+        <v>101.698050815318</v>
       </c>
       <c r="E10" t="n">
-        <v>531.5625342271874</v>
+        <v>101.698050815318</v>
       </c>
       <c r="F10" t="n">
-        <v>531.5625342271874</v>
+        <v>101.698050815318</v>
       </c>
       <c r="G10" t="n">
-        <v>362.5098887381107</v>
+        <v>101.698050815318</v>
       </c>
       <c r="H10" t="n">
-        <v>204.2916740578584</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>100.6394685786905</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K10" t="n">
-        <v>101.5315041582451</v>
+        <v>152.2947161636129</v>
       </c>
       <c r="L10" t="n">
-        <v>221.4050648543854</v>
+        <v>337.1277110644313</v>
       </c>
       <c r="M10" t="n">
-        <v>358.1840501895422</v>
+        <v>542.3973117836692</v>
       </c>
       <c r="N10" t="n">
-        <v>497.1453533913462</v>
+        <v>748.2206766197735</v>
       </c>
       <c r="O10" t="n">
-        <v>609.4823129223975</v>
+        <v>922.3155720083723</v>
       </c>
       <c r="P10" t="n">
-        <v>682.0853063817789</v>
+        <v>1047.763148606988</v>
       </c>
       <c r="Q10" t="n">
-        <v>682.0853063817789</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="R10" t="n">
-        <v>531.5625342271874</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S10" t="n">
-        <v>531.5625342271874</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T10" t="n">
-        <v>531.5625342271874</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U10" t="n">
-        <v>531.5625342271874</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V10" t="n">
-        <v>531.5625342271874</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W10" t="n">
-        <v>531.5625342271874</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="X10" t="n">
-        <v>531.5625342271874</v>
+        <v>823.1919171293305</v>
       </c>
       <c r="Y10" t="n">
-        <v>531.5625342271874</v>
+        <v>602.3993379858003</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.2769458819329</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C11" t="n">
-        <v>141.2769458819329</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D11" t="n">
-        <v>141.2769458819329</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E11" t="n">
-        <v>141.2769458819329</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F11" t="n">
-        <v>141.2769458819329</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G11" t="n">
-        <v>141.2769458819329</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H11" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U11" t="n">
-        <v>1975.313418796631</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V11" t="n">
-        <v>1644.25053145306</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W11" t="n">
-        <v>1291.481876182946</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X11" t="n">
-        <v>918.0161179218665</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y11" t="n">
-        <v>527.8767859460547</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310614</v>
+        <v>520.4109910936373</v>
       </c>
       <c r="L12" t="n">
-        <v>599.4122767260739</v>
+        <v>815.114548125109</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.591260505113</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N12" t="n">
-        <v>1867.770244284151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O12" t="n">
-        <v>2199.840679460313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.24678656800313</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="C13" t="n">
-        <v>51.24678656800313</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="D13" t="n">
-        <v>51.24678656800313</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="E13" t="n">
-        <v>51.24678656800313</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F13" t="n">
-        <v>51.24678656800313</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G13" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T13" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U13" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426272</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056666</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X13" t="n">
-        <v>53.04593830764924</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.24678656800313</v>
+        <v>570.4526592426267</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.276945881932</v>
+        <v>350.0225872761084</v>
       </c>
       <c r="C14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K14" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V14" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W14" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X14" t="n">
-        <v>918.0161179218655</v>
+        <v>1126.761759316042</v>
       </c>
       <c r="Y14" t="n">
-        <v>527.8767859460538</v>
+        <v>736.6224273402302</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F15" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J15" t="n">
         <v>113.5972052500114</v>
@@ -5364,43 +5364,43 @@
         <v>593.0223835625333</v>
       </c>
       <c r="M15" t="n">
-        <v>1209.253210781439</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.432194560477</v>
+        <v>1861.380351120611</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.502629736639</v>
+        <v>2193.450786296773</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q15" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F16" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020476</v>
@@ -5461,25 +5461,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074498</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V16" t="n">
-        <v>1636.446120074498</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W16" t="n">
-        <v>1636.446120074498</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X16" t="n">
-        <v>1490.124203461141</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.331624317611</v>
+        <v>155.6293447920672</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1412.134398099142</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.725694231566</v>
+        <v>690.403225888617</v>
       </c>
       <c r="D17" t="n">
-        <v>1263.725694231566</v>
+        <v>690.403225888617</v>
       </c>
       <c r="E17" t="n">
-        <v>877.9374416333219</v>
+        <v>304.6149732903728</v>
       </c>
       <c r="F17" t="n">
-        <v>466.9515368437143</v>
+        <v>304.6149732903728</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>304.6149732903728</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J17" t="n">
         <v>187.5281822362818</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
         <v>795.7553530872917</v>
@@ -5528,37 +5528,37 @@
         <v>1656.671415230818</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W17" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X17" t="n">
-        <v>2188.873570139076</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y17" t="n">
-        <v>1798.734238163264</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G18" t="n">
         <v>165.443278618252</v>
@@ -5589,28 +5589,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K18" t="n">
-        <v>507.2413987429755</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L18" t="n">
-        <v>801.9449557744473</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O18" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q18" t="n">
         <v>2562.339328400155</v>
@@ -5634,7 +5634,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>828.2101936809111</v>
+        <v>638.3033838959714</v>
       </c>
       <c r="C19" t="n">
-        <v>659.2740107530042</v>
+        <v>638.3033838959714</v>
       </c>
       <c r="D19" t="n">
-        <v>619.8914390106346</v>
+        <v>638.3033838959714</v>
       </c>
       <c r="E19" t="n">
-        <v>471.9783454282415</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F19" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G19" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K19" t="n">
         <v>248.4064713020476</v>
@@ -5695,28 +5695,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R19" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S19" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T19" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U19" t="n">
-        <v>1310.884232784815</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V19" t="n">
-        <v>1056.199744578928</v>
+        <v>927.720553932932</v>
       </c>
       <c r="W19" t="n">
-        <v>1056.199744578928</v>
+        <v>638.3033838959714</v>
       </c>
       <c r="X19" t="n">
-        <v>828.2101936809111</v>
+        <v>638.3033838959714</v>
       </c>
       <c r="Y19" t="n">
-        <v>828.2101936809111</v>
+        <v>638.3033838959714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1674.035030689734</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="C20" t="n">
-        <v>1621.991392838317</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D20" t="n">
-        <v>1263.725694231566</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9374416333219</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F20" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J20" t="n">
         <v>187.5281822362818</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L20" t="n">
         <v>795.7553530872917</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V20" t="n">
-        <v>2437.640120926626</v>
+        <v>2344.38468269189</v>
       </c>
       <c r="W20" t="n">
-        <v>2437.640120926626</v>
+        <v>2344.38468269189</v>
       </c>
       <c r="X20" t="n">
-        <v>2064.174362665546</v>
+        <v>1970.91892443081</v>
       </c>
       <c r="Y20" t="n">
-        <v>1674.035030689734</v>
+        <v>1580.779592454998</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D21" t="n">
         <v>607.9167021542605</v>
@@ -5817,40 +5817,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0008189145195</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K21" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L21" t="n">
-        <v>909.2465818694942</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M21" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O21" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5868,7 +5868,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
         <v>1307.279776881661</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.24678656800311</v>
+        <v>1292.966125319479</v>
       </c>
       <c r="C22" t="n">
-        <v>51.24678656800311</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="D22" t="n">
-        <v>51.24678656800311</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="E22" t="n">
-        <v>51.24678656800311</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F22" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="G22" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312202</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M22" t="n">
-        <v>824.219460709659</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N22" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q22" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R22" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S22" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T22" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U22" t="n">
-        <v>825.1371474485143</v>
+        <v>2467.498378434113</v>
       </c>
       <c r="V22" t="n">
-        <v>570.4526592426274</v>
+        <v>2212.813890228226</v>
       </c>
       <c r="W22" t="n">
-        <v>281.0354892056668</v>
+        <v>1923.396720191266</v>
       </c>
       <c r="X22" t="n">
-        <v>53.04593830764946</v>
+        <v>1695.407169293248</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.24678656800311</v>
+        <v>1474.614590149718</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1412.134398099142</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C23" t="n">
-        <v>1412.134398099142</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D23" t="n">
-        <v>1412.134398099142</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="E23" t="n">
-        <v>1026.346145500898</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="F23" t="n">
-        <v>615.3602407112903</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="G23" t="n">
-        <v>199.6554904355792</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H23" t="n">
         <v>51.24678656800311</v>
@@ -6014,25 +6014,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V23" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W23" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X23" t="n">
-        <v>2188.873570139076</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y23" t="n">
-        <v>1798.734238163264</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
@@ -6069,19 +6069,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L24" t="n">
-        <v>801.9449557744473</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M24" t="n">
-        <v>1165.206974733667</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.492103330613</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O24" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P24" t="n">
         <v>2447.023413292609</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>977.1399948936607</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C25" t="n">
-        <v>977.1399948936607</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D25" t="n">
-        <v>977.1399948936607</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E25" t="n">
-        <v>977.1399948936607</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F25" t="n">
-        <v>977.1399948936607</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G25" t="n">
-        <v>977.1399948936607</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H25" t="n">
-        <v>977.1399948936607</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I25" t="n">
-        <v>977.1399948936607</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K25" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L25" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M25" t="n">
-        <v>1750.112669035316</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N25" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P25" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R25" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.127174075599</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.148693270334</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.030355774172</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.345867568285</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.928697531324</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="X25" t="n">
-        <v>1197.932574037191</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y25" t="n">
-        <v>977.1399948936607</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1263.725694231566</v>
+        <v>861.3216348137591</v>
       </c>
       <c r="C26" t="n">
-        <v>1263.725694231566</v>
+        <v>861.3216348137591</v>
       </c>
       <c r="D26" t="n">
-        <v>1263.725694231566</v>
+        <v>861.3216348137591</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9374416333219</v>
+        <v>475.5333822155149</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9515368437143</v>
+        <v>475.5333822155149</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800311</v>
+        <v>59.82863193980376</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
         <v>187.5281822362818</v>
@@ -6248,28 +6248,28 @@
         <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U26" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V26" t="n">
-        <v>2353.59368700598</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W26" t="n">
-        <v>2027.330784468458</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X26" t="n">
-        <v>1653.865026207378</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y26" t="n">
-        <v>1263.725694231566</v>
+        <v>861.3216348137591</v>
       </c>
     </row>
     <row r="27">
@@ -6279,55 +6279,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G27" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J27" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>560.1394111735143</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L27" t="n">
-        <v>854.8429682049862</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M27" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N27" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O27" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6342,10 +6342,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>919.6966947956497</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C28" t="n">
-        <v>750.7605118677428</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D28" t="n">
-        <v>600.6438724554071</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E28" t="n">
-        <v>452.7307788730139</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F28" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G28" t="n">
         <v>305.8408313751036</v>
@@ -6379,7 +6379,7 @@
         <v>157.1019332386097</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J28" t="n">
         <v>76.71595955312202</v>
@@ -6418,16 +6418,16 @@
         <v>1636.446120074498</v>
       </c>
       <c r="V28" t="n">
-        <v>1636.446120074498</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W28" t="n">
-        <v>1550.127289667437</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="X28" t="n">
-        <v>1322.137738769419</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="Y28" t="n">
-        <v>1101.345159625889</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1449.50507480484</v>
+        <v>990.20348807605</v>
       </c>
       <c r="C29" t="n">
-        <v>1080.542557864428</v>
+        <v>990.20348807605</v>
       </c>
       <c r="D29" t="n">
-        <v>722.2768592576779</v>
+        <v>631.9377894692996</v>
       </c>
       <c r="E29" t="n">
-        <v>336.4886066594336</v>
+        <v>631.9377894692996</v>
       </c>
       <c r="F29" t="n">
-        <v>336.4886066594336</v>
+        <v>631.9377894692996</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800312</v>
+        <v>216.2330391935884</v>
       </c>
       <c r="H29" t="n">
         <v>51.24678656800312</v>
@@ -6461,22 +6461,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O29" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P29" t="n">
         <v>2360.886721764998</v>
@@ -6488,25 +6488,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V29" t="n">
-        <v>2562.339328400156</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W29" t="n">
-        <v>2209.570673130042</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X29" t="n">
-        <v>1836.104914868962</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y29" t="n">
-        <v>1836.104914868962</v>
+        <v>990.20348807605</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D30" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F30" t="n">
         <v>302.1446891756898</v>
@@ -6534,7 +6534,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
         <v>51.24678656800312</v>
@@ -6543,28 +6543,28 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380219</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R30" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S30" t="n">
         <v>2426.617474780096</v>
@@ -6573,7 +6573,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1164.828594480257</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="C31" t="n">
-        <v>995.89241155235</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D31" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E31" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F31" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G31" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H31" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I31" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J31" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K31" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L31" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M31" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N31" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O31" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P31" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q31" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R31" t="n">
-        <v>2562.339328400156</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S31" t="n">
-        <v>2562.339328400156</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T31" t="n">
-        <v>2339.360847594891</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U31" t="n">
-        <v>2339.360847594891</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V31" t="n">
-        <v>2084.676359389005</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W31" t="n">
-        <v>1795.259189352044</v>
+        <v>377.8945123821399</v>
       </c>
       <c r="X31" t="n">
-        <v>1567.269638454027</v>
+        <v>377.8945123821399</v>
       </c>
       <c r="Y31" t="n">
-        <v>1346.477059310497</v>
+        <v>157.1019332386097</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1412.134398099143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="C32" t="n">
-        <v>1043.171881158731</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="D32" t="n">
-        <v>1043.171881158731</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E32" t="n">
-        <v>657.3836285604871</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F32" t="n">
-        <v>246.3977237708795</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362814</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L32" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P32" t="n">
         <v>2360.886721764998</v>
@@ -6725,25 +6725,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V32" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.339328400156</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X32" t="n">
-        <v>2188.873570139076</v>
+        <v>918.016117921866</v>
       </c>
       <c r="Y32" t="n">
-        <v>1798.734238163265</v>
+        <v>837.3843300102556</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D33" t="n">
         <v>607.9167021542605</v>
@@ -6771,10 +6771,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J33" t="n">
         <v>113.5972052500114</v>
@@ -6795,13 +6795,13 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S33" t="n">
         <v>2426.617474780096</v>
@@ -6816,7 +6816,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X33" t="n">
         <v>1307.279776881661</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1146.076177821569</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="C34" t="n">
-        <v>977.1399948936617</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="D34" t="n">
-        <v>977.1399948936617</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="E34" t="n">
-        <v>977.1399948936617</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="F34" t="n">
-        <v>977.1399948936617</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G34" t="n">
-        <v>977.1399948936617</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H34" t="n">
-        <v>977.1399948936617</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I34" t="n">
-        <v>977.1399948936617</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.609167878781</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K34" t="n">
         <v>1174.299679627706</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294982</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M34" t="n">
         <v>1750.112669035317</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571482</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O34" t="n">
         <v>2309.019775324693</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496683</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q34" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="R34" t="n">
-        <v>2562.339328400156</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="S34" t="n">
-        <v>2562.339328400156</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T34" t="n">
-        <v>2339.360847594892</v>
+        <v>2040.148693270335</v>
       </c>
       <c r="U34" t="n">
-        <v>2050.242510098729</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V34" t="n">
-        <v>1795.558021892842</v>
+        <v>1496.345867568285</v>
       </c>
       <c r="W34" t="n">
-        <v>1548.517221795338</v>
+        <v>1206.928697531325</v>
       </c>
       <c r="X34" t="n">
-        <v>1548.517221795338</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="Y34" t="n">
-        <v>1327.724642651808</v>
+        <v>1145.126459585383</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1139.973197786556</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C35" t="n">
-        <v>771.0106808461439</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D35" t="n">
-        <v>771.0106808461439</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="E35" t="n">
-        <v>771.0106808461439</v>
+        <v>657.3836285604871</v>
       </c>
       <c r="F35" t="n">
-        <v>771.0106808461439</v>
+        <v>246.3977237708795</v>
       </c>
       <c r="G35" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J35" t="n">
         <v>187.5281822362818</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
         <v>795.7553530872917</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R35" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T35" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U35" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V35" t="n">
-        <v>1852.996172847234</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W35" t="n">
-        <v>1500.22751757712</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X35" t="n">
-        <v>1139.973197786556</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y35" t="n">
-        <v>1139.973197786556</v>
+        <v>1798.734238163265</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756898</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057896</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J36" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K36" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L36" t="n">
-        <v>854.8429682049859</v>
+        <v>815.1145481251091</v>
       </c>
       <c r="M36" t="n">
-        <v>1218.104987164206</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681275</v>
       </c>
       <c r="O36" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.023413292608</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R36" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>427.4800176695876</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="C37" t="n">
-        <v>258.5438347416807</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D37" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E37" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F37" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G37" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H37" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020476</v>
@@ -7129,16 +7129,16 @@
         <v>1347.327782578335</v>
       </c>
       <c r="V37" t="n">
-        <v>1347.327782578335</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.910612541375</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X37" t="n">
-        <v>829.9210616433575</v>
+        <v>575.2365734374705</v>
       </c>
       <c r="Y37" t="n">
-        <v>609.1284824998273</v>
+        <v>354.4439942939404</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1412.134398099141</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C38" t="n">
         <v>1263.725694231566</v>
@@ -7157,19 +7157,19 @@
         <v>1263.725694231566</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9374416333218</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F38" t="n">
-        <v>466.9515368437142</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362818</v>
@@ -7193,31 +7193,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X38" t="n">
-        <v>2188.873570139075</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y38" t="n">
-        <v>1798.734238163263</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D39" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F39" t="n">
         <v>302.1446891756898</v>
@@ -7245,34 +7245,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057896</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L39" t="n">
-        <v>854.8429682049859</v>
+        <v>884.9085321458211</v>
       </c>
       <c r="M39" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N39" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O39" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7284,7 +7284,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.683159487371</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="C40" t="n">
-        <v>918.7469765594642</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="D40" t="n">
-        <v>768.6303371471284</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="E40" t="n">
-        <v>620.7172435647353</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="F40" t="n">
-        <v>473.8272960668249</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="G40" t="n">
-        <v>305.8408313751035</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="H40" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800309</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M40" t="n">
-        <v>824.219460709659</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N40" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O40" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P40" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q40" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R40" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074498</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T40" t="n">
-        <v>1636.446120074498</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U40" t="n">
-        <v>1636.446120074498</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="V40" t="n">
-        <v>1636.446120074498</v>
+        <v>1598.929274052703</v>
       </c>
       <c r="W40" t="n">
-        <v>1636.446120074498</v>
+        <v>1309.512104015742</v>
       </c>
       <c r="X40" t="n">
-        <v>1490.124203461141</v>
+        <v>1081.522553117725</v>
       </c>
       <c r="Y40" t="n">
-        <v>1269.331624317611</v>
+        <v>977.1399948936607</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>918.0161179218646</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="C41" t="n">
-        <v>779.9452783412949</v>
+        <v>1840.60815618963</v>
       </c>
       <c r="D41" t="n">
-        <v>421.6795797345443</v>
+        <v>1482.34245758288</v>
       </c>
       <c r="E41" t="n">
-        <v>421.6795797345443</v>
+        <v>1096.554204984636</v>
       </c>
       <c r="F41" t="n">
-        <v>421.6795797345443</v>
+        <v>685.5683001950281</v>
       </c>
       <c r="G41" t="n">
-        <v>421.6795797345443</v>
+        <v>269.8635499193169</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6204357321146</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T41" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U41" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V41" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W41" t="n">
-        <v>1291.481876182944</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X41" t="n">
-        <v>918.0161179218646</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="Y41" t="n">
-        <v>918.0161179218646</v>
+        <v>2209.570673130042</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G42" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057896</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J42" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>560.1394111735142</v>
+        <v>507.241398742975</v>
       </c>
       <c r="L42" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744468</v>
       </c>
       <c r="M42" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O42" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.023413292608</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7521,7 +7521,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
@@ -7530,7 +7530,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.267863345031</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C43" t="n">
-        <v>128.267863345031</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D43" t="n">
-        <v>128.267863345031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E43" t="n">
-        <v>128.267863345031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F43" t="n">
-        <v>128.267863345031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G43" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020476</v>
@@ -7594,25 +7594,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S43" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T43" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U43" t="n">
-        <v>1048.115628253779</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V43" t="n">
-        <v>1048.115628253779</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W43" t="n">
-        <v>758.6984582168182</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X43" t="n">
-        <v>530.7089073188008</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y43" t="n">
-        <v>309.9163281752707</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1302.576789404184</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C44" t="n">
-        <v>1302.576789404184</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="D44" t="n">
-        <v>944.3110907974333</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E44" t="n">
-        <v>944.3110907974333</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F44" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
         <v>795.7553530872917</v>
@@ -7658,10 +7658,10 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
         <v>2360.886721764998</v>
@@ -7676,22 +7676,22 @@
         <v>2562.339328400156</v>
       </c>
       <c r="T44" t="n">
-        <v>2353.593687005981</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U44" t="n">
-        <v>2100.012626270161</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V44" t="n">
-        <v>1768.94973892659</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W44" t="n">
-        <v>1416.181083656476</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X44" t="n">
-        <v>1302.576789404184</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y44" t="n">
-        <v>1302.576789404184</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148806</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500114</v>
+        <v>168.000818914519</v>
       </c>
       <c r="K45" t="n">
-        <v>507.2413987429764</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L45" t="n">
-        <v>801.9449557744482</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M45" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.492103330614</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O45" t="n">
-        <v>1884.562538506776</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.6293447920672</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="C46" t="n">
-        <v>155.6293447920672</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="D46" t="n">
-        <v>155.6293447920672</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E46" t="n">
-        <v>155.6293447920672</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F46" t="n">
-        <v>51.24678656800313</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020476</v>
@@ -7831,25 +7831,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T46" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>927.720553932932</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>673.0360657270452</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W46" t="n">
-        <v>383.6188956900846</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X46" t="n">
-        <v>155.6293447920672</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.6293447920672</v>
+        <v>580.2476435302235</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>214.2493203138264</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>322.7513493539207</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>55.96943670484144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.9958106585134</v>
+        <v>107.8742120229463</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8456,13 +8456,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>178.7586225842976</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>55.9694367048415</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>281.561641426247</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.6078613817834</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>224.3355197601779</v>
       </c>
       <c r="L12" t="n">
-        <v>6.454437538929994</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>273.6534998179986</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5240487471572</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N15" t="n">
-        <v>249.3877325071649</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>6.454437538929994</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>211.0329012241556</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>138.9393975111052</v>
       </c>
       <c r="R18" t="n">
         <v>20.93778120154985</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>54.95314511566474</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154847</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>211.0329012241556</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>255.8421700460945</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>319.4183821282438</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0304328515141</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>20.93778120154985</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878341</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>54.95314511566585</v>
+        <v>54.95314511566534</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>20.93778120154847</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-8.279990525307263e-14</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P36" t="n">
-        <v>265.0304328515131</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>265.0304328515136</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-8.279990525307263e-14</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>265.0304328515131</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>54.95314511566427</v>
       </c>
       <c r="K45" t="n">
-        <v>211.0329012241565</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>20.93778120154985</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>300.9039231737612</v>
       </c>
       <c r="E2" t="n">
-        <v>206.1205372944299</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.9008012965642</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1172228173282</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.4277435039525</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>61.80474195134732</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.0734480055617</v>
       </c>
       <c r="T2" t="n">
         <v>216.9588737673374</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2334980103508</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,19 +22632,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>75.32452028816411</v>
       </c>
       <c r="F3" t="n">
-        <v>2.301857512553852</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5934151572083</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.57075238159806</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.88977047916853</v>
+        <v>115.6397106393961</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.6360325334498</v>
       </c>
       <c r="I4" t="n">
         <v>136.5389299027613</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.89875519058049</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>225.2586407700247</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2847278842578</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,25 +22781,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.14904098950552</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.9008012965642</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>325.1172228173282</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>61.80474195134732</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.9588737673374</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2334980103508</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.9638283453469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22878,10 +22878,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>75.32452028816367</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>63.57075238159806</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>138.8952726697624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22945,13 +22945,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3621190341859</v>
@@ -22960,10 +22960,10 @@
         <v>156.6360325334498</v>
       </c>
       <c r="I7" t="n">
-        <v>1.378034165416153</v>
+        <v>136.5389299027613</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>48.89875519058049</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.50356646189935</v>
+        <v>33.50356646189934</v>
       </c>
       <c r="R7" t="n">
-        <v>149.0175444330455</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>213.0572776585077</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.2586407700247</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2847278842578</v>
+        <v>249.0880561301971</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9008012965642</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>325.1172228173282</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,13 +23072,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>89.22291693638222</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>188.9052284264793</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.8952726697639</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23115,10 +23115,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4.193401411366736</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23176,13 +23176,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>102.7653450643908</v>
       </c>
       <c r="I10" t="n">
-        <v>33.92324647838512</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.5035664618994</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>213.0572776585077</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.2586407700247</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2847278842578</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23242,10 +23242,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.2429578619381</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>277.5986075140854</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>50.7748531025254</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.8034931298452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>276.1430340502179</v>
+        <v>69.4848490699834</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>76.49324754011384</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>80.85095794181376</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>218.3482749421074</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>115.8939603797299</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>109.6267269932665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.0236837186455</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>313.749690298104</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
         <v>206.6581849802338</v>
@@ -24026,7 +24026,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>111.977159218951</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3066000448042</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>192.3346136548177</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.8034931298449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>204.6894500082571</v>
       </c>
       <c r="H23" t="n">
-        <v>154.0939357335051</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247044</v>
@@ -24254,25 +24254,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>262.5773610745042</v>
       </c>
       <c r="X25" t="n">
-        <v>216.8034931298449</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>292.5225256443227</v>
       </c>
       <c r="I26" t="n">
         <v>65.70991267247044</v>
@@ -24494,16 +24494,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>26.24069520526604</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>201.0673562336007</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>107.2789458766048</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>129.1583008824378</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>137.682162463076</v>
       </c>
       <c r="I29" t="n">
         <v>65.70991267247044</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
@@ -24737,7 +24737,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>130.0505805261104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>95.89043294470832</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>218.3482749421064</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24965,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>306.4124686235592</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>41.95260624006187</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>164.5254398225545</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>218.3482749421064</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247044</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>13.07932408581041</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>151.7101608357879</v>
       </c>
       <c r="D37" t="n">
-        <v>48.18799053017207</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>218.3482749421081</v>
+        <v>218.3482749421074</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.85095794181376</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.2459207102712</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>228.5827605862435</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>84.58795684460472</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>90.05573403554658</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>147.2515091551288</v>
@@ -25834,19 +25834,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>50.57682429414501</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>207.7584247917823</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>257.2628493687</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>63.25464097294675</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>42.08231538110779</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>783717.9115691357</v>
+        <v>783717.911569136</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>783717.9115691357</v>
+        <v>783717.911569136</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>783717.9115691357</v>
+        <v>791170.0396421968</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789860.7514814425</v>
+        <v>789860.7514814422</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789860.7514814424</v>
+        <v>789860.7514814425</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789860.7514814424</v>
+        <v>789860.7514814422</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789860.7514814424</v>
+        <v>789860.7514814425</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789860.7514814422</v>
+        <v>789860.7514814424</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789860.7514814424</v>
+        <v>789860.7514814425</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789860.7514814422</v>
+        <v>789860.7514814424</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789860.7514814421</v>
+        <v>789860.7514814425</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789860.7514814424</v>
+        <v>789860.7514814422</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>265690.6768050938</v>
       </c>
       <c r="D2" t="n">
-        <v>265690.6768050937</v>
+        <v>277710.1420935377</v>
       </c>
       <c r="E2" t="n">
-        <v>290673.0489695932</v>
+        <v>290673.0489695933</v>
       </c>
       <c r="F2" t="n">
         <v>290673.0489695933</v>
@@ -26332,28 +26332,28 @@
         <v>290673.0489695932</v>
       </c>
       <c r="I2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="J2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="K2" t="n">
-        <v>290673.0489695934</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="L2" t="n">
+        <v>290673.0489695931</v>
+      </c>
+      <c r="M2" t="n">
         <v>290673.0489695933</v>
       </c>
-      <c r="M2" t="n">
-        <v>290673.0489695931</v>
-      </c>
       <c r="N2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="O2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="P2" t="n">
-        <v>290673.0489695932</v>
+        <v>290673.0489695931</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>209602.5870779996</v>
       </c>
       <c r="E3" t="n">
-        <v>470258.4952745456</v>
+        <v>273630.0570820048</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68948.76888829636</v>
+        <v>71035.31137914708</v>
       </c>
       <c r="C4" t="n">
-        <v>68948.76888829636</v>
+        <v>71035.31137914708</v>
       </c>
       <c r="D4" t="n">
-        <v>68948.76888829634</v>
+        <v>46238.08588288451</v>
       </c>
       <c r="E4" t="n">
-        <v>9869.999386411564</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="F4" t="n">
-        <v>9869.999386411557</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="G4" t="n">
-        <v>9869.999386411557</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="H4" t="n">
-        <v>9869.999386411539</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="I4" t="n">
-        <v>9869.999386411542</v>
+        <v>10154.90898475461</v>
       </c>
       <c r="J4" t="n">
-        <v>9869.999386411542</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="K4" t="n">
-        <v>9869.999386411549</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="L4" t="n">
-        <v>9869.999386411551</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="M4" t="n">
-        <v>9869.999386411517</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="N4" t="n">
-        <v>9869.999386411524</v>
+        <v>10154.9089847546</v>
       </c>
       <c r="O4" t="n">
-        <v>9869.999386411517</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="P4" t="n">
-        <v>9869.999386411564</v>
+        <v>10154.90898475462</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>80177.50742093755</v>
       </c>
       <c r="C5" t="n">
-        <v>80177.50742093755</v>
+        <v>80177.50742093756</v>
       </c>
       <c r="D5" t="n">
-        <v>80177.50742093752</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984473</v>
@@ -26497,19 +26497,19 @@
         <v>59310.17243984473</v>
       </c>
       <c r="L5" t="n">
+        <v>59310.17243984473</v>
+      </c>
+      <c r="M5" t="n">
         <v>59310.17243984474</v>
       </c>
-      <c r="M5" t="n">
-        <v>59310.17243984471</v>
-      </c>
       <c r="N5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984474</v>
+        <v>59310.17243984473</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434152.6465817019</v>
+        <v>-436239.1890725527</v>
       </c>
       <c r="C6" t="n">
-        <v>116564.4004958599</v>
+        <v>114477.8580050091</v>
       </c>
       <c r="D6" t="n">
-        <v>116564.4004958601</v>
+        <v>-63643.46764639854</v>
       </c>
       <c r="E6" t="n">
-        <v>-248765.6181312086</v>
+        <v>-52422.08953701082</v>
       </c>
       <c r="F6" t="n">
-        <v>221492.877143337</v>
+        <v>221207.9675449939</v>
       </c>
       <c r="G6" t="n">
-        <v>221492.8771433368</v>
+        <v>221207.9675449938</v>
       </c>
       <c r="H6" t="n">
-        <v>221492.877143337</v>
+        <v>221207.9675449939</v>
       </c>
       <c r="I6" t="n">
-        <v>221492.8771433368</v>
+        <v>221207.9675449939</v>
       </c>
       <c r="J6" t="n">
-        <v>53887.69933335434</v>
+        <v>53602.78973501123</v>
       </c>
       <c r="K6" t="n">
-        <v>221492.8771433371</v>
+        <v>221207.9675449939</v>
       </c>
       <c r="L6" t="n">
-        <v>221492.877143337</v>
+        <v>221207.9675449937</v>
       </c>
       <c r="M6" t="n">
-        <v>221492.8771433369</v>
+        <v>221207.9675449939</v>
       </c>
       <c r="N6" t="n">
-        <v>221492.8771433369</v>
+        <v>221207.9675449939</v>
       </c>
       <c r="O6" t="n">
-        <v>221492.877143337</v>
+        <v>221207.9675449938</v>
       </c>
       <c r="P6" t="n">
-        <v>221492.8771433369</v>
+        <v>221207.9675449938</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>348.7316343695036</v>
       </c>
       <c r="C3" t="n">
-        <v>348.7316343695035</v>
+        <v>348.7316343695036</v>
       </c>
       <c r="D3" t="n">
-        <v>348.7316343695032</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
         <v>934.0648921175394</v>
@@ -26790,46 +26790,46 @@
         <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="F4" t="n">
         <v>640.5848321000391</v>
       </c>
-      <c r="F4" t="n">
-        <v>640.5848321000389</v>
-      </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="L4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="M4" t="n">
         <v>640.5848321000391</v>
       </c>
-      <c r="M4" t="n">
-        <v>640.5848321000386</v>
-      </c>
       <c r="N4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>244.7444659685614</v>
       </c>
       <c r="E3" t="n">
-        <v>585.3332577480361</v>
+        <v>340.588791779474</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.401936218570867</v>
+        <v>1.401936218570868</v>
       </c>
       <c r="H5" t="n">
         <v>14.3575792984389</v>
       </c>
       <c r="I5" t="n">
-        <v>54.04814606645342</v>
+        <v>54.04814606645343</v>
       </c>
       <c r="J5" t="n">
         <v>118.9875841309293</v>
       </c>
       <c r="K5" t="n">
-        <v>178.3315442630341</v>
+        <v>178.3315442630342</v>
       </c>
       <c r="L5" t="n">
-        <v>221.2360498121223</v>
+        <v>221.2360498121224</v>
       </c>
       <c r="M5" t="n">
-        <v>246.167733039132</v>
+        <v>246.1677330391321</v>
       </c>
       <c r="N5" t="n">
-        <v>250.1509843201465</v>
+        <v>250.1509843201466</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2104810467324</v>
+        <v>236.2104810467325</v>
       </c>
       <c r="P5" t="n">
-        <v>201.6001806507641</v>
+        <v>201.6001806507642</v>
       </c>
       <c r="Q5" t="n">
         <v>151.3933398231949</v>
       </c>
       <c r="R5" t="n">
-        <v>88.06437598980233</v>
+        <v>88.06437598980236</v>
       </c>
       <c r="S5" t="n">
-        <v>31.94662158068367</v>
+        <v>31.94662158068368</v>
       </c>
       <c r="T5" t="n">
-        <v>6.136975796793975</v>
+        <v>6.136975796793977</v>
       </c>
       <c r="U5" t="n">
         <v>0.1121548974856694</v>
@@ -31355,25 +31355,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7501020060023283</v>
+        <v>0.7501020060023286</v>
       </c>
       <c r="H6" t="n">
-        <v>7.244406215864593</v>
+        <v>7.244406215864596</v>
       </c>
       <c r="I6" t="n">
-        <v>25.82588046981701</v>
+        <v>25.82588046981702</v>
       </c>
       <c r="J6" t="n">
-        <v>70.86818996182525</v>
+        <v>70.86818996182528</v>
       </c>
       <c r="K6" t="n">
         <v>121.1250243639813</v>
       </c>
       <c r="L6" t="n">
-        <v>162.867543013795</v>
+        <v>162.8675430137951</v>
       </c>
       <c r="M6" t="n">
-        <v>190.0587407313794</v>
+        <v>190.0587407313795</v>
       </c>
       <c r="N6" t="n">
         <v>195.0890300611056</v>
@@ -31382,22 +31382,22 @@
         <v>178.4683487702119</v>
       </c>
       <c r="P6" t="n">
-        <v>143.2365839356551</v>
+        <v>143.2365839356552</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.74986308198143</v>
+        <v>95.74986308198146</v>
       </c>
       <c r="R6" t="n">
-        <v>46.57212279372353</v>
+        <v>46.57212279372354</v>
       </c>
       <c r="S6" t="n">
-        <v>13.93281576938534</v>
+        <v>13.93281576938535</v>
       </c>
       <c r="T6" t="n">
-        <v>3.023437471562015</v>
+        <v>3.023437471562016</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04934881618436373</v>
+        <v>0.04934881618436374</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,40 +31434,40 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6288603242728751</v>
+        <v>0.6288603242728753</v>
       </c>
       <c r="H7" t="n">
-        <v>5.591139973989748</v>
+        <v>5.59113997398975</v>
       </c>
       <c r="I7" t="n">
         <v>18.91154502449702</v>
       </c>
       <c r="J7" t="n">
-        <v>44.46042492609227</v>
+        <v>44.46042492609229</v>
       </c>
       <c r="K7" t="n">
-        <v>73.06213585643039</v>
+        <v>73.06213585643042</v>
       </c>
       <c r="L7" t="n">
-        <v>93.49437948326002</v>
+        <v>93.49437948326005</v>
       </c>
       <c r="M7" t="n">
-        <v>98.57671428579259</v>
+        <v>98.57671428579262</v>
       </c>
       <c r="N7" t="n">
-        <v>96.2327803498665</v>
+        <v>96.23278034986653</v>
       </c>
       <c r="O7" t="n">
-        <v>88.88654837995151</v>
+        <v>88.88654837995153</v>
       </c>
       <c r="P7" t="n">
-        <v>76.05779776478479</v>
+        <v>76.05779776478482</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.65847678979503</v>
+        <v>52.65847678979505</v>
       </c>
       <c r="R7" t="n">
-        <v>28.275846944124</v>
+        <v>28.27584694412401</v>
       </c>
       <c r="S7" t="n">
         <v>10.95932037846456</v>
@@ -31476,7 +31476,7 @@
         <v>2.68694865825683</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03430147223306595</v>
+        <v>0.03430147223306597</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.401936218570866</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>14.35757929843889</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>54.04814606645337</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>118.9875841309292</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>178.331544263034</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>221.2360498121222</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>246.1677330391318</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>250.1509843201463</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2104810467322</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>201.6001806507639</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.3933398231947</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>88.06437598980226</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>31.94662158068365</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>6.13697579679397</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1121548974856693</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7501020060023278</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>7.244406215864587</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>25.82588046981699</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>70.86818996182519</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>121.1250243639812</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>162.8675430137949</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>190.0587407313792</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>195.0890300611054</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>178.4683487702117</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>143.236583935655</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.74986308198136</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>46.57212279372349</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>13.93281576938533</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>3.023437471562013</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04934881618436369</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6288603242728746</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>5.591139973989744</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>18.911545024497</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>44.46042492609223</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>73.06213585643033</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>93.49437948325993</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>98.57671428579251</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>96.23278034986642</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>88.88654837995144</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>76.05779776478474</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.65847678979499</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>28.27584694412397</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>10.95932037846455</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>2.686948658256827</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03430147223306593</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31832,10 +31832,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31844,34 +31844,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31929,10 +31929,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31941,16 +31941,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>247.7488224022009</v>
       </c>
       <c r="L3" t="n">
-        <v>238.5624835477473</v>
+        <v>395.15350853738</v>
       </c>
       <c r="M3" t="n">
         <v>513.6297705593611</v>
       </c>
       <c r="N3" t="n">
-        <v>543.0896923213259</v>
+        <v>386.498667331693</v>
       </c>
       <c r="O3" t="n">
         <v>429.734423602497</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.0382947763167</v>
+        <v>107.0382947763168</v>
       </c>
       <c r="K5" t="n">
-        <v>282.3871057892183</v>
+        <v>282.3871057892184</v>
       </c>
       <c r="L5" t="n">
         <v>403.1308493925856</v>
@@ -34948,13 +34948,13 @@
         <v>458.0848451355398</v>
       </c>
       <c r="O5" t="n">
-        <v>386.912450887791</v>
+        <v>386.9124508877911</v>
       </c>
       <c r="P5" t="n">
-        <v>292.1658930669772</v>
+        <v>292.1658930669773</v>
       </c>
       <c r="Q5" t="n">
-        <v>141.40264060865</v>
+        <v>141.4026406086501</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>70.12159863556742</v>
       </c>
       <c r="K6" t="n">
-        <v>161.2793960481357</v>
+        <v>91.15779741256861</v>
       </c>
       <c r="L6" t="n">
         <v>395.15350853738</v>
       </c>
       <c r="M6" t="n">
-        <v>513.629770559361</v>
+        <v>513.6297705593611</v>
       </c>
       <c r="N6" t="n">
         <v>543.0896923213259</v>
       </c>
       <c r="O6" t="n">
-        <v>429.7344236024969</v>
+        <v>429.734423602497</v>
       </c>
       <c r="P6" t="n">
         <v>327.7249451612621</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>50.79264403054754</v>
+        <v>50.79264403054756</v>
       </c>
       <c r="L7" t="n">
         <v>121.0844047435762</v>
@@ -35109,7 +35109,7 @@
         <v>113.4716762939912</v>
       </c>
       <c r="P7" t="n">
-        <v>73.33635702967828</v>
+        <v>73.33635702967831</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>107.0382947763166</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>282.3871057892181</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>403.1308493925853</v>
+        <v>319.4946385855635</v>
       </c>
       <c r="M8" t="n">
-        <v>465.3350333046916</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>458.0848451355395</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>386.9124508877908</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>292.165893066977</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.4026406086499</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>247.7488224022007</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>395.1535085373799</v>
+        <v>420.1773969976551</v>
       </c>
       <c r="M9" t="n">
-        <v>513.6297705593608</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>543.0896923213256</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>429.7344236024968</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>327.724945161262</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.37595037774327</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.79264403054748</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>121.0844047435761</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>138.1605912476331</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>140.364952729095</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>113.4716762939911</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>73.33635702967823</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434848</v>
+        <v>410.9230160036627</v>
       </c>
       <c r="L12" t="n">
-        <v>304.1347981767802</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
-        <v>640.5848321000391</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>297.6803606378503</v>
       </c>
       <c r="M15" t="n">
-        <v>622.4553810291978</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N15" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O15" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>256.1339666624623</v>
       </c>
       <c r="Q15" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R15" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>440.6071730376316</v>
       </c>
       <c r="O17" t="n">
-        <v>402.582898494972</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P17" t="n">
         <v>308.7456939637951</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>397.6203974676405</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L18" t="n">
         <v>297.6803606378503</v>
@@ -35978,10 +35978,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>356.8062301067509</v>
       </c>
       <c r="M20" t="n">
-        <v>429.005010945727</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N20" t="n">
         <v>440.6071730376316</v>
@@ -36142,7 +36142,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>117.9333660065822</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>451.0527332560635</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378503</v>
@@ -36437,22 +36437,22 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
-        <v>397.6203974676405</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378503</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N24" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>335.4246819961231</v>
+        <v>591.2668520422176</v>
       </c>
       <c r="P24" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
         <v>116.4807223308546</v>
@@ -36610,13 +36610,13 @@
         <v>402.5828984949728</v>
       </c>
       <c r="P26" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q26" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939823</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K27" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378503</v>
+        <v>617.0987427660941</v>
       </c>
       <c r="M27" t="n">
         <v>366.9313322820406</v>
@@ -36689,10 +36689,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P27" t="n">
-        <v>514.7099619750464</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>308.7456939637951</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402551</v>
       </c>
       <c r="R29" t="n">
         <v>20.2916633093991</v>
@@ -36911,7 +36911,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>379.914843031319</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378503</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225033</v>
       </c>
       <c r="K32" t="n">
         <v>257.5646495407339</v>
@@ -37163,13 +37163,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P33" t="n">
-        <v>304.6326742391982</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q33" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>356.8062301067509</v>
       </c>
       <c r="M35" t="n">
-        <v>429.005010945726</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N35" t="n">
         <v>440.6071730376316</v>
@@ -37324,7 +37324,7 @@
         <v>308.7456939637951</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R35" t="n">
         <v>20.2916633093991</v>
@@ -37385,10 +37385,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L36" t="n">
-        <v>297.6803606378503</v>
+        <v>522.0158803980279</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820406</v>
@@ -37397,10 +37397,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O36" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P36" t="n">
-        <v>514.7099619750454</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
         <v>116.4807223308546</v>
@@ -37561,10 +37561,10 @@
         <v>308.7456939637951</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402547</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939732</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>451.0527332560635</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378503</v>
@@ -37637,13 +37637,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P39" t="n">
-        <v>514.709961975046</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>356.8062301067509</v>
       </c>
       <c r="M41" t="n">
-        <v>429.005010945726</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N41" t="n">
         <v>440.6071730376316</v>
@@ -37859,7 +37859,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0527332560635</v>
+        <v>397.62039746764</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378503</v>
@@ -37874,7 +37874,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
-        <v>514.7099619750454</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q42" t="n">
         <v>116.4807223308546</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065817</v>
       </c>
       <c r="K45" t="n">
-        <v>397.6203974676414</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378503</v>
@@ -38111,10 +38111,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
